--- a/output_merge/order-merge.xlsx
+++ b/output_merge/order-merge.xlsx
@@ -572,11 +572,7 @@
           <t>Not Found</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
